--- a/src/rcklyt.xlsx
+++ b/src/rcklyt.xlsx
@@ -695,7 +695,7 @@
         <v>12</v>
       </c>
       <c r="H4" s="1" t="n">
-        <v>17</v>
+        <v>7</v>
       </c>
     </row>
     <row r="5">
@@ -726,7 +726,7 @@
         <v>3</v>
       </c>
       <c r="H5" s="1" t="n">
-        <v>8</v>
+        <v>18</v>
       </c>
     </row>
     <row r="6">
@@ -757,7 +757,7 @@
         <v>0</v>
       </c>
       <c r="H6" s="1" t="n">
-        <v>21</v>
+        <v>11</v>
       </c>
     </row>
     <row r="7">
@@ -788,7 +788,7 @@
         <v>3</v>
       </c>
       <c r="H7" s="1" t="n">
-        <v>22</v>
+        <v>44</v>
       </c>
     </row>
     <row r="8">
@@ -850,7 +850,7 @@
         <v>0</v>
       </c>
       <c r="H9" s="1" t="n">
-        <v>18</v>
+        <v>30</v>
       </c>
     </row>
     <row r="10">
@@ -1160,7 +1160,7 @@
         <v>2</v>
       </c>
       <c r="H19" s="1" t="n">
-        <v>10</v>
+        <v>20</v>
       </c>
     </row>
     <row r="20">
@@ -1191,7 +1191,7 @@
         <v>0</v>
       </c>
       <c r="H20" s="1" t="n">
-        <v>14</v>
+        <v>24</v>
       </c>
     </row>
     <row r="21">
@@ -1435,7 +1435,7 @@
         <v>0</v>
       </c>
       <c r="H28" s="1" t="n">
-        <v>4</v>
+        <v>14</v>
       </c>
     </row>
     <row r="29">
@@ -1528,7 +1528,7 @@
         <v>11</v>
       </c>
       <c r="H31" s="1" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
     </row>
     <row r="32">
@@ -1559,7 +1559,7 @@
         <v>2</v>
       </c>
       <c r="H32" s="1" t="n">
-        <v>2</v>
+        <v>12</v>
       </c>
     </row>
     <row r="33">

--- a/src/rcklyt.xlsx
+++ b/src/rcklyt.xlsx
@@ -10,7 +10,7 @@
     <sheet name="Quantity" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Tables'!$A$1:$D$57</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Tables'!$A$1:$D$56</definedName>
   </definedNames>
   <calcPr calcId="0" fullCalcOnLoad="1"/>
 </workbook>
@@ -549,10 +549,10 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H87"/>
+  <dimension ref="A1:H86"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K9" sqref="K9"/>
+      <selection activeCell="H32" sqref="H32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="14.5"/>
@@ -565,7 +565,8 @@
     <col width="17.26953125" bestFit="1" customWidth="1" min="6" max="6"/>
     <col width="6.1796875" bestFit="1" customWidth="1" min="7" max="7"/>
     <col width="6.36328125" bestFit="1" customWidth="1" min="8" max="8"/>
-    <col width="8.7265625" customWidth="1" style="1" min="9" max="16384"/>
+    <col width="8.7265625" customWidth="1" style="1" min="9" max="9"/>
+    <col width="8.7265625" customWidth="1" style="1" min="10" max="16384"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -726,7 +727,7 @@
         <v>3</v>
       </c>
       <c r="H5" s="1" t="n">
-        <v>18</v>
+        <v>8</v>
       </c>
     </row>
     <row r="6">
@@ -788,7 +789,7 @@
         <v>3</v>
       </c>
       <c r="H7" s="1" t="n">
-        <v>44</v>
+        <v>54</v>
       </c>
     </row>
     <row r="8">
@@ -850,7 +851,7 @@
         <v>0</v>
       </c>
       <c r="H9" s="1" t="n">
-        <v>30</v>
+        <v>32</v>
       </c>
     </row>
     <row r="10">
@@ -881,7 +882,7 @@
         <v>10</v>
       </c>
       <c r="H10" s="1" t="n">
-        <v>21</v>
+        <v>26</v>
       </c>
     </row>
     <row r="11">
@@ -912,7 +913,7 @@
         <v>0</v>
       </c>
       <c r="H11" s="1" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
     <row r="12">
@@ -1191,7 +1192,7 @@
         <v>0</v>
       </c>
       <c r="H20" s="1" t="n">
-        <v>24</v>
+        <v>29</v>
       </c>
     </row>
     <row r="21">
@@ -1227,7 +1228,7 @@
     </row>
     <row r="22">
       <c r="A22" s="5" t="n">
-        <v>3320</v>
+        <v>3321</v>
       </c>
       <c r="B22" s="5" t="inlineStr">
         <is>
@@ -1236,10 +1237,14 @@
       </c>
       <c r="C22" s="3" t="inlineStr">
         <is>
-          <t>Dedicated Rushbet RO</t>
-        </is>
-      </c>
-      <c r="D22" s="3" t="n"/>
+          <t>Dedicated Rushbet Classic BJ</t>
+        </is>
+      </c>
+      <c r="D22" s="3" t="inlineStr">
+        <is>
+          <t>FUR-2297-COL-EBA</t>
+        </is>
+      </c>
       <c r="F22" s="1" t="inlineStr">
         <is>
           <t>FUR-2297-COL-EBA</t>
@@ -1254,7 +1259,7 @@
     </row>
     <row r="23">
       <c r="A23" s="5" t="n">
-        <v>3321</v>
+        <v>3322</v>
       </c>
       <c r="B23" s="5" t="inlineStr">
         <is>
@@ -1285,7 +1290,7 @@
     </row>
     <row r="24">
       <c r="A24" s="5" t="n">
-        <v>3322</v>
+        <v>3323</v>
       </c>
       <c r="B24" s="5" t="inlineStr">
         <is>
@@ -1294,12 +1299,12 @@
       </c>
       <c r="C24" s="3" t="inlineStr">
         <is>
-          <t>Dedicated Rushbet Classic BJ</t>
+          <t>Dedicated Rushbet Speed BJ</t>
         </is>
       </c>
       <c r="D24" s="3" t="inlineStr">
         <is>
-          <t>FUR-2297-COL-EBA</t>
+          <t>FUR-1908-COL-EBA</t>
         </is>
       </c>
       <c r="F24" s="1" t="inlineStr">
@@ -1316,21 +1321,21 @@
     </row>
     <row r="25">
       <c r="A25" s="5" t="n">
-        <v>3323</v>
+        <v>3325</v>
       </c>
       <c r="B25" s="5" t="inlineStr">
         <is>
-          <t>Provenza</t>
+          <t>Las Palmas</t>
         </is>
       </c>
       <c r="C25" s="3" t="inlineStr">
         <is>
-          <t>Dedicated Rushbet Speed BJ</t>
+          <t>Generic Classic BJ</t>
         </is>
       </c>
       <c r="D25" s="3" t="inlineStr">
         <is>
-          <t>FUR-1908-COL-EBA</t>
+          <t>FUR-1892-COL-EBA</t>
         </is>
       </c>
       <c r="F25" s="1" t="inlineStr">
@@ -1347,7 +1352,7 @@
     </row>
     <row r="26">
       <c r="A26" s="5" t="n">
-        <v>3325</v>
+        <v>3326</v>
       </c>
       <c r="B26" s="5" t="inlineStr">
         <is>
@@ -1378,7 +1383,7 @@
     </row>
     <row r="27">
       <c r="A27" s="5" t="n">
-        <v>3326</v>
+        <v>3327</v>
       </c>
       <c r="B27" s="5" t="inlineStr">
         <is>
@@ -1409,7 +1414,7 @@
     </row>
     <row r="28">
       <c r="A28" s="5" t="n">
-        <v>3327</v>
+        <v>3328</v>
       </c>
       <c r="B28" s="5" t="inlineStr">
         <is>
@@ -1435,12 +1440,12 @@
         <v>0</v>
       </c>
       <c r="H28" s="1" t="n">
-        <v>14</v>
+        <v>24</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="5" t="n">
-        <v>3328</v>
+        <v>3329</v>
       </c>
       <c r="B29" s="5" t="inlineStr">
         <is>
@@ -1471,7 +1476,7 @@
     </row>
     <row r="30">
       <c r="A30" s="5" t="n">
-        <v>3329</v>
+        <v>3330</v>
       </c>
       <c r="B30" s="5" t="inlineStr">
         <is>
@@ -1502,7 +1507,7 @@
     </row>
     <row r="31">
       <c r="A31" s="5" t="n">
-        <v>3330</v>
+        <v>3331</v>
       </c>
       <c r="B31" s="5" t="inlineStr">
         <is>
@@ -1511,12 +1516,12 @@
       </c>
       <c r="C31" s="3" t="inlineStr">
         <is>
-          <t>Generic Classic BJ</t>
+          <t>Dedicated Winpot Classic BJ</t>
         </is>
       </c>
       <c r="D31" s="3" t="inlineStr">
         <is>
-          <t>FUR-1892-COL-EBA</t>
+          <t>FUR-1863-COL-EBA</t>
         </is>
       </c>
       <c r="F31" s="1" t="inlineStr">
@@ -1525,29 +1530,29 @@
         </is>
       </c>
       <c r="G31" s="1" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="H31" s="1" t="n">
-        <v>15</v>
+        <v>20</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="5" t="n">
-        <v>3331</v>
+        <v>3332</v>
       </c>
       <c r="B32" s="5" t="inlineStr">
         <is>
           <t>Las Palmas</t>
         </is>
       </c>
-      <c r="C32" s="3" t="inlineStr">
-        <is>
-          <t>Dedicated Winpot Classic BJ</t>
+      <c r="C32" s="2" t="inlineStr">
+        <is>
+          <t>Generic Classic BJ</t>
         </is>
       </c>
       <c r="D32" s="3" t="inlineStr">
         <is>
-          <t>FUR-1863-COL-EBA</t>
+          <t>FUR-1892-COL-EBA</t>
         </is>
       </c>
       <c r="F32" s="1" t="inlineStr">
@@ -1556,7 +1561,7 @@
         </is>
       </c>
       <c r="G32" s="1" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H32" s="1" t="n">
         <v>12</v>
@@ -1564,14 +1569,14 @@
     </row>
     <row r="33">
       <c r="A33" s="5" t="n">
-        <v>3332</v>
+        <v>3333</v>
       </c>
       <c r="B33" s="5" t="inlineStr">
         <is>
           <t>Las Palmas</t>
         </is>
       </c>
-      <c r="C33" s="2" t="inlineStr">
+      <c r="C33" s="3" t="inlineStr">
         <is>
           <t>Generic Classic BJ</t>
         </is>
@@ -1581,13 +1586,21 @@
           <t>FUR-1892-COL-EBA</t>
         </is>
       </c>
-      <c r="F33" s="1" t="n"/>
-      <c r="G33" s="1" t="n"/>
-      <c r="H33" s="1" t="n"/>
+      <c r="F33" s="1" t="inlineStr">
+        <is>
+          <t>FUR-2080-COL-EBA</t>
+        </is>
+      </c>
+      <c r="G33" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="H33" s="1" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="34">
       <c r="A34" s="5" t="n">
-        <v>3333</v>
+        <v>3334</v>
       </c>
       <c r="B34" s="5" t="inlineStr">
         <is>
@@ -1610,7 +1623,7 @@
     </row>
     <row r="35">
       <c r="A35" s="5" t="n">
-        <v>3334</v>
+        <v>3335</v>
       </c>
       <c r="B35" s="5" t="inlineStr">
         <is>
@@ -1619,18 +1632,18 @@
       </c>
       <c r="C35" s="3" t="inlineStr">
         <is>
-          <t>Generic Classic BJ</t>
+          <t>Dedicated PlayDoit Classic BJ</t>
         </is>
       </c>
       <c r="D35" s="3" t="inlineStr">
         <is>
-          <t>FUR-1892-COL-EBA</t>
+          <t>FUR-1340-COL-EBA</t>
         </is>
       </c>
     </row>
     <row r="36">
       <c r="A36" s="5" t="n">
-        <v>3335</v>
+        <v>3336</v>
       </c>
       <c r="B36" s="5" t="inlineStr">
         <is>
@@ -1650,7 +1663,7 @@
     </row>
     <row r="37">
       <c r="A37" s="5" t="n">
-        <v>3336</v>
+        <v>3337</v>
       </c>
       <c r="B37" s="5" t="inlineStr">
         <is>
@@ -1670,7 +1683,7 @@
     </row>
     <row r="38">
       <c r="A38" s="5" t="n">
-        <v>3337</v>
+        <v>3338</v>
       </c>
       <c r="B38" s="5" t="inlineStr">
         <is>
@@ -1679,18 +1692,18 @@
       </c>
       <c r="C38" s="3" t="inlineStr">
         <is>
-          <t>Dedicated PlayDoit Classic BJ</t>
+          <t>Dedicated PlayDoit ROU</t>
         </is>
       </c>
       <c r="D38" s="3" t="inlineStr">
         <is>
-          <t>FUR-1340-COL-EBA</t>
+          <t>FUR-1813-COL-EBA</t>
         </is>
       </c>
     </row>
     <row r="39">
       <c r="A39" s="5" t="n">
-        <v>3338</v>
+        <v>3341</v>
       </c>
       <c r="B39" s="5" t="inlineStr">
         <is>
@@ -1699,18 +1712,18 @@
       </c>
       <c r="C39" s="3" t="inlineStr">
         <is>
-          <t>Dedicated PlayDoit ROU</t>
+          <t xml:space="preserve">Generic VIP Classic BJ </t>
         </is>
       </c>
       <c r="D39" s="3" t="inlineStr">
         <is>
-          <t>FUR-1813-COL-EBA</t>
+          <t>FUR-1774-COL-EBA</t>
         </is>
       </c>
     </row>
     <row r="40">
       <c r="A40" s="5" t="n">
-        <v>3341</v>
+        <v>3342</v>
       </c>
       <c r="B40" s="5" t="inlineStr">
         <is>
@@ -1730,7 +1743,7 @@
     </row>
     <row r="41">
       <c r="A41" s="5" t="n">
-        <v>3342</v>
+        <v>3343</v>
       </c>
       <c r="B41" s="5" t="inlineStr">
         <is>
@@ -1750,7 +1763,7 @@
     </row>
     <row r="42">
       <c r="A42" s="5" t="n">
-        <v>3343</v>
+        <v>3344</v>
       </c>
       <c r="B42" s="5" t="inlineStr">
         <is>
@@ -1770,7 +1783,7 @@
     </row>
     <row r="43">
       <c r="A43" s="5" t="n">
-        <v>3344</v>
+        <v>3345</v>
       </c>
       <c r="B43" s="5" t="inlineStr">
         <is>
@@ -1790,7 +1803,7 @@
     </row>
     <row r="44">
       <c r="A44" s="5" t="n">
-        <v>3345</v>
+        <v>3346</v>
       </c>
       <c r="B44" s="5" t="inlineStr">
         <is>
@@ -1810,7 +1823,7 @@
     </row>
     <row r="45">
       <c r="A45" s="5" t="n">
-        <v>3346</v>
+        <v>3347</v>
       </c>
       <c r="B45" s="5" t="inlineStr">
         <is>
@@ -1819,18 +1832,18 @@
       </c>
       <c r="C45" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">Generic VIP Classic BJ </t>
+          <t>Generic Speed BJ</t>
         </is>
       </c>
       <c r="D45" s="3" t="inlineStr">
         <is>
-          <t>FUR-1774-COL-EBA</t>
+          <t>FUR-1428-COL-EBA</t>
         </is>
       </c>
     </row>
     <row r="46">
       <c r="A46" s="5" t="n">
-        <v>3347</v>
+        <v>3348</v>
       </c>
       <c r="B46" s="5" t="inlineStr">
         <is>
@@ -1850,27 +1863,27 @@
     </row>
     <row r="47">
       <c r="A47" s="5" t="n">
-        <v>3348</v>
+        <v>3350</v>
       </c>
       <c r="B47" s="5" t="inlineStr">
         <is>
-          <t>Las Palmas</t>
+          <t>Laureles</t>
         </is>
       </c>
       <c r="C47" s="3" t="inlineStr">
         <is>
-          <t>Generic Speed BJ</t>
+          <t>Dedicated Betsson Speed BJ</t>
         </is>
       </c>
       <c r="D47" s="3" t="inlineStr">
         <is>
-          <t>FUR-1428-COL-EBA</t>
+          <t>FUR-1972-COL-EBA</t>
         </is>
       </c>
     </row>
     <row r="48">
       <c r="A48" s="5" t="n">
-        <v>3350</v>
+        <v>3351</v>
       </c>
       <c r="B48" s="5" t="inlineStr">
         <is>
@@ -1890,7 +1903,7 @@
     </row>
     <row r="49">
       <c r="A49" s="5" t="n">
-        <v>3351</v>
+        <v>3352</v>
       </c>
       <c r="B49" s="5" t="inlineStr">
         <is>
@@ -1910,7 +1923,7 @@
     </row>
     <row r="50">
       <c r="A50" s="5" t="n">
-        <v>3352</v>
+        <v>3359</v>
       </c>
       <c r="B50" s="5" t="inlineStr">
         <is>
@@ -1919,18 +1932,18 @@
       </c>
       <c r="C50" s="3" t="inlineStr">
         <is>
-          <t>Dedicated Betsson Speed BJ</t>
+          <t>Generic Classic ROU</t>
         </is>
       </c>
       <c r="D50" s="3" t="inlineStr">
         <is>
-          <t>FUR-1972-COL-EBA</t>
+          <t>FUR-2114-COL-EBA</t>
         </is>
       </c>
     </row>
     <row r="51">
       <c r="A51" s="5" t="n">
-        <v>3359</v>
+        <v>3360</v>
       </c>
       <c r="B51" s="5" t="inlineStr">
         <is>
@@ -1939,18 +1952,18 @@
       </c>
       <c r="C51" s="3" t="inlineStr">
         <is>
-          <t>Generic Classic ROU</t>
+          <t>Generic Classic BJ</t>
         </is>
       </c>
       <c r="D51" s="3" t="inlineStr">
         <is>
-          <t>FUR-2114-COL-EBA</t>
+          <t>FUR-1892-COL-EBA</t>
         </is>
       </c>
     </row>
     <row r="52">
       <c r="A52" s="5" t="n">
-        <v>3360</v>
+        <v>3361</v>
       </c>
       <c r="B52" s="5" t="inlineStr">
         <is>
@@ -1970,7 +1983,7 @@
     </row>
     <row r="53">
       <c r="A53" s="5" t="n">
-        <v>3361</v>
+        <v>3362</v>
       </c>
       <c r="B53" s="5" t="inlineStr">
         <is>
@@ -1990,7 +2003,7 @@
     </row>
     <row r="54">
       <c r="A54" s="5" t="n">
-        <v>3362</v>
+        <v>3366</v>
       </c>
       <c r="B54" s="5" t="inlineStr">
         <is>
@@ -1999,18 +2012,18 @@
       </c>
       <c r="C54" s="3" t="inlineStr">
         <is>
-          <t>Generic Classic BJ</t>
+          <t>Generic Baccarat</t>
         </is>
       </c>
       <c r="D54" s="3" t="inlineStr">
         <is>
-          <t>FUR-1892-COL-EBA</t>
+          <t>FUR-2289-COL-EBA</t>
         </is>
       </c>
     </row>
     <row r="55">
       <c r="A55" s="5" t="n">
-        <v>3366</v>
+        <v>3368</v>
       </c>
       <c r="B55" s="5" t="inlineStr">
         <is>
@@ -2030,27 +2043,27 @@
     </row>
     <row r="56">
       <c r="A56" s="5" t="n">
-        <v>3368</v>
+        <v>3373</v>
       </c>
       <c r="B56" s="5" t="inlineStr">
         <is>
-          <t>Laureles</t>
+          <t>El Poblado</t>
         </is>
       </c>
       <c r="C56" s="3" t="inlineStr">
         <is>
-          <t>Generic Baccarat</t>
+          <t>Generic Classic BJ</t>
         </is>
       </c>
       <c r="D56" s="3" t="inlineStr">
         <is>
-          <t>FUR-2289-COL-EBA</t>
+          <t>FUR-1760-COL-EBA</t>
         </is>
       </c>
     </row>
     <row r="57">
       <c r="A57" s="5" t="n">
-        <v>3373</v>
+        <v>3376</v>
       </c>
       <c r="B57" s="5" t="inlineStr">
         <is>
@@ -2064,13 +2077,13 @@
       </c>
       <c r="D57" s="3" t="inlineStr">
         <is>
-          <t>FUR-1760-COL-EBA</t>
+          <t>FUR-1692-COL-EBA</t>
         </is>
       </c>
     </row>
     <row r="58">
       <c r="A58" s="5" t="n">
-        <v>3376</v>
+        <v>3377</v>
       </c>
       <c r="B58" s="5" t="inlineStr">
         <is>
@@ -2079,18 +2092,18 @@
       </c>
       <c r="C58" s="3" t="inlineStr">
         <is>
-          <t>Generic Classic BJ</t>
+          <t xml:space="preserve">Generic VIP Classic BJ </t>
         </is>
       </c>
       <c r="D58" s="3" t="inlineStr">
         <is>
-          <t>FUR-1692-COL-EBA</t>
+          <t>FUR-1774-COL-EBA</t>
         </is>
       </c>
     </row>
     <row r="59">
       <c r="A59" s="5" t="n">
-        <v>3377</v>
+        <v>3378</v>
       </c>
       <c r="B59" s="5" t="inlineStr">
         <is>
@@ -2110,7 +2123,7 @@
     </row>
     <row r="60">
       <c r="A60" s="5" t="n">
-        <v>3378</v>
+        <v>3379</v>
       </c>
       <c r="B60" s="5" t="inlineStr">
         <is>
@@ -2130,7 +2143,7 @@
     </row>
     <row r="61">
       <c r="A61" s="5" t="n">
-        <v>3379</v>
+        <v>3380</v>
       </c>
       <c r="B61" s="5" t="inlineStr">
         <is>
@@ -2150,7 +2163,7 @@
     </row>
     <row r="62">
       <c r="A62" s="5" t="n">
-        <v>3380</v>
+        <v>3381</v>
       </c>
       <c r="B62" s="5" t="inlineStr">
         <is>
@@ -2170,7 +2183,7 @@
     </row>
     <row r="63">
       <c r="A63" s="5" t="n">
-        <v>3381</v>
+        <v>3382</v>
       </c>
       <c r="B63" s="5" t="inlineStr">
         <is>
@@ -2190,7 +2203,7 @@
     </row>
     <row r="64">
       <c r="A64" s="5" t="n">
-        <v>3382</v>
+        <v>3383</v>
       </c>
       <c r="B64" s="5" t="inlineStr">
         <is>
@@ -2199,18 +2212,18 @@
       </c>
       <c r="C64" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">Generic VIP Classic BJ </t>
+          <t>Generic Classic BJ</t>
         </is>
       </c>
       <c r="D64" s="3" t="inlineStr">
         <is>
-          <t>FUR-1774-COL-EBA</t>
+          <t>FUR-1892-COL-EBA</t>
         </is>
       </c>
     </row>
     <row r="65">
       <c r="A65" s="5" t="n">
-        <v>3383</v>
+        <v>3384</v>
       </c>
       <c r="B65" s="5" t="inlineStr">
         <is>
@@ -2219,18 +2232,18 @@
       </c>
       <c r="C65" s="3" t="inlineStr">
         <is>
-          <t>Generic Classic BJ</t>
+          <t>Generic Speed BJ</t>
         </is>
       </c>
       <c r="D65" s="3" t="inlineStr">
         <is>
-          <t>FUR-1892-COL-EBA</t>
+          <t>FUR-1428-COL-EBA</t>
         </is>
       </c>
     </row>
     <row r="66">
       <c r="A66" s="5" t="n">
-        <v>3384</v>
+        <v>3385</v>
       </c>
       <c r="B66" s="5" t="inlineStr">
         <is>
@@ -2239,18 +2252,18 @@
       </c>
       <c r="C66" s="3" t="inlineStr">
         <is>
-          <t>Generic Speed BJ</t>
+          <t>Generic Classic BJ</t>
         </is>
       </c>
       <c r="D66" s="3" t="inlineStr">
         <is>
-          <t>FUR-1428-COL-EBA</t>
+          <t>FUR-1892-COL-EBA</t>
         </is>
       </c>
     </row>
     <row r="67">
       <c r="A67" s="5" t="n">
-        <v>3385</v>
+        <v>3386</v>
       </c>
       <c r="B67" s="5" t="inlineStr">
         <is>
@@ -2270,7 +2283,7 @@
     </row>
     <row r="68">
       <c r="A68" s="5" t="n">
-        <v>3386</v>
+        <v>3387</v>
       </c>
       <c r="B68" s="5" t="inlineStr">
         <is>
@@ -2290,7 +2303,7 @@
     </row>
     <row r="69">
       <c r="A69" s="5" t="n">
-        <v>3387</v>
+        <v>3388</v>
       </c>
       <c r="B69" s="5" t="inlineStr">
         <is>
@@ -2310,7 +2323,7 @@
     </row>
     <row r="70">
       <c r="A70" s="5" t="n">
-        <v>3388</v>
+        <v>3389</v>
       </c>
       <c r="B70" s="5" t="inlineStr">
         <is>
@@ -2319,18 +2332,18 @@
       </c>
       <c r="C70" s="3" t="inlineStr">
         <is>
-          <t>Generic Classic BJ</t>
+          <t>Generic Speed BJ</t>
         </is>
       </c>
       <c r="D70" s="3" t="inlineStr">
         <is>
-          <t>FUR-1892-COL-EBA</t>
+          <t>FUR-1428-COL-EBA</t>
         </is>
       </c>
     </row>
     <row r="71">
       <c r="A71" s="5" t="n">
-        <v>3389</v>
+        <v>3390</v>
       </c>
       <c r="B71" s="5" t="inlineStr">
         <is>
@@ -2339,18 +2352,18 @@
       </c>
       <c r="C71" s="3" t="inlineStr">
         <is>
-          <t>Generic Speed BJ</t>
+          <t>Generic Classic BJ</t>
         </is>
       </c>
       <c r="D71" s="3" t="inlineStr">
         <is>
-          <t>FUR-1428-COL-EBA</t>
+          <t>FUR-1892-COL-EBA</t>
         </is>
       </c>
     </row>
     <row r="72">
       <c r="A72" s="5" t="n">
-        <v>3390</v>
+        <v>3391</v>
       </c>
       <c r="B72" s="5" t="inlineStr">
         <is>
@@ -2370,7 +2383,7 @@
     </row>
     <row r="73">
       <c r="A73" s="5" t="n">
-        <v>3391</v>
+        <v>3392</v>
       </c>
       <c r="B73" s="5" t="inlineStr">
         <is>
@@ -2379,38 +2392,38 @@
       </c>
       <c r="C73" s="3" t="inlineStr">
         <is>
-          <t>Generic Classic BJ</t>
+          <t>Generic Speed BJ</t>
         </is>
       </c>
       <c r="D73" s="3" t="inlineStr">
         <is>
-          <t>FUR-1892-COL-EBA</t>
+          <t>FUR-1428-COL-EBA</t>
         </is>
       </c>
     </row>
     <row r="74">
-      <c r="A74" s="5" t="n">
-        <v>3392</v>
-      </c>
-      <c r="B74" s="5" t="inlineStr">
-        <is>
-          <t>El Poblado</t>
+      <c r="A74" s="1" t="n">
+        <v>3501</v>
+      </c>
+      <c r="B74" s="1" t="inlineStr">
+        <is>
+          <t>Academia</t>
         </is>
       </c>
       <c r="C74" s="3" t="inlineStr">
         <is>
-          <t>Generic Speed BJ</t>
-        </is>
-      </c>
-      <c r="D74" s="3" t="inlineStr">
-        <is>
-          <t>FUR-1428-COL-EBA</t>
+          <t>Academy Classic BJ</t>
+        </is>
+      </c>
+      <c r="D74" s="1" t="inlineStr">
+        <is>
+          <t>FUR-0063-EVO</t>
         </is>
       </c>
     </row>
     <row r="75">
       <c r="A75" s="1" t="n">
-        <v>3501</v>
+        <v>3502</v>
       </c>
       <c r="B75" s="1" t="inlineStr">
         <is>
@@ -2430,7 +2443,7 @@
     </row>
     <row r="76">
       <c r="A76" s="1" t="n">
-        <v>3502</v>
+        <v>3503</v>
       </c>
       <c r="B76" s="1" t="inlineStr">
         <is>
@@ -2450,7 +2463,7 @@
     </row>
     <row r="77">
       <c r="A77" s="1" t="n">
-        <v>3503</v>
+        <v>3504</v>
       </c>
       <c r="B77" s="1" t="inlineStr">
         <is>
@@ -2470,7 +2483,7 @@
     </row>
     <row r="78">
       <c r="A78" s="1" t="n">
-        <v>3504</v>
+        <v>3505</v>
       </c>
       <c r="B78" s="1" t="inlineStr">
         <is>
@@ -2490,7 +2503,7 @@
     </row>
     <row r="79">
       <c r="A79" s="1" t="n">
-        <v>3505</v>
+        <v>3506</v>
       </c>
       <c r="B79" s="1" t="inlineStr">
         <is>
@@ -2510,7 +2523,7 @@
     </row>
     <row r="80">
       <c r="A80" s="1" t="n">
-        <v>3506</v>
+        <v>3507</v>
       </c>
       <c r="B80" s="1" t="inlineStr">
         <is>
@@ -2530,7 +2543,7 @@
     </row>
     <row r="81">
       <c r="A81" s="1" t="n">
-        <v>3507</v>
+        <v>3508</v>
       </c>
       <c r="B81" s="1" t="inlineStr">
         <is>
@@ -2550,7 +2563,7 @@
     </row>
     <row r="82">
       <c r="A82" s="1" t="n">
-        <v>3508</v>
+        <v>3509</v>
       </c>
       <c r="B82" s="1" t="inlineStr">
         <is>
@@ -2570,7 +2583,7 @@
     </row>
     <row r="83">
       <c r="A83" s="1" t="n">
-        <v>3509</v>
+        <v>3510</v>
       </c>
       <c r="B83" s="1" t="inlineStr">
         <is>
@@ -2590,7 +2603,7 @@
     </row>
     <row r="84">
       <c r="A84" s="1" t="n">
-        <v>3510</v>
+        <v>3511</v>
       </c>
       <c r="B84" s="1" t="inlineStr">
         <is>
@@ -2599,18 +2612,18 @@
       </c>
       <c r="C84" s="3" t="inlineStr">
         <is>
-          <t>Academy Classic BJ</t>
+          <t>Academy Bacarat</t>
         </is>
       </c>
       <c r="D84" s="1" t="inlineStr">
         <is>
-          <t>FUR-0063-EVO</t>
+          <t>FUR-2080-COL-EBA</t>
         </is>
       </c>
     </row>
     <row r="85">
       <c r="A85" s="1" t="n">
-        <v>3511</v>
+        <v>3512</v>
       </c>
       <c r="B85" s="1" t="inlineStr">
         <is>
@@ -2620,12 +2633,17 @@
       <c r="C85" s="3" t="inlineStr">
         <is>
           <t>Academy Bacarat</t>
+        </is>
+      </c>
+      <c r="D85" s="1" t="inlineStr">
+        <is>
+          <t>FUR-2080-COL-EBA</t>
         </is>
       </c>
     </row>
     <row r="86">
       <c r="A86" s="1" t="n">
-        <v>3512</v>
+        <v>3513</v>
       </c>
       <c r="B86" s="1" t="inlineStr">
         <is>
@@ -2634,32 +2652,17 @@
       </c>
       <c r="C86" s="3" t="inlineStr">
         <is>
-          <t>Academy Bacarat</t>
-        </is>
-      </c>
-    </row>
-    <row r="87">
-      <c r="A87" s="1" t="n">
-        <v>3513</v>
-      </c>
-      <c r="B87" s="1" t="inlineStr">
-        <is>
-          <t>Academia</t>
-        </is>
-      </c>
-      <c r="C87" s="3" t="inlineStr">
-        <is>
           <t>Academy Infinite BJ</t>
         </is>
       </c>
-      <c r="D87" s="1" t="inlineStr">
+      <c r="D86" s="1" t="inlineStr">
         <is>
           <t>FUR-2206-COL-EBA</t>
         </is>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:D57"/>
+  <autoFilter ref="A1:D56"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
